--- a/data/pca/factorExposure/factorExposure_2010-07-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-02.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01751557816172902</v>
+        <v>-0.01647889832481457</v>
       </c>
       <c r="C2">
-        <v>0.0006756235377998615</v>
+        <v>-0.0008335876094332873</v>
       </c>
       <c r="D2">
-        <v>-0.01336674835870561</v>
+        <v>-0.006751906443242282</v>
       </c>
       <c r="E2">
-        <v>0.01812613094493437</v>
+        <v>0.002117858636533346</v>
       </c>
       <c r="F2">
-        <v>0.02815066333100944</v>
+        <v>-0.01237232524412864</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1181468943860525</v>
+        <v>-0.09501545076251403</v>
       </c>
       <c r="C4">
-        <v>0.09463046913815842</v>
+        <v>-0.01803579266147457</v>
       </c>
       <c r="D4">
-        <v>0.001383710619230886</v>
+        <v>-0.07986831974319732</v>
       </c>
       <c r="E4">
-        <v>-0.1288274585416027</v>
+        <v>-0.0280220746014862</v>
       </c>
       <c r="F4">
-        <v>0.1236690441205289</v>
+        <v>0.04004833273749091</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1260632856886607</v>
+        <v>-0.1517698733227932</v>
       </c>
       <c r="C6">
-        <v>0.06478547766791998</v>
+        <v>-0.02425270589379112</v>
       </c>
       <c r="D6">
-        <v>0.0008521650419962472</v>
+        <v>0.02138983821475282</v>
       </c>
       <c r="E6">
-        <v>-0.05924578877024986</v>
+        <v>-0.01240313431977619</v>
       </c>
       <c r="F6">
-        <v>0.02708488260022626</v>
+        <v>0.03953323160624884</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07110125944217149</v>
+        <v>-0.06281027913324125</v>
       </c>
       <c r="C7">
-        <v>0.08755944900759215</v>
+        <v>-0.0004746702606102351</v>
       </c>
       <c r="D7">
-        <v>-0.004833844027805283</v>
+        <v>-0.05280032334357242</v>
       </c>
       <c r="E7">
-        <v>-0.01738327928369885</v>
+        <v>-0.01331771878047205</v>
       </c>
       <c r="F7">
-        <v>0.0003725722919948366</v>
+        <v>0.0570336883898847</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0429072893362198</v>
+        <v>-0.05987750277624845</v>
       </c>
       <c r="C8">
-        <v>0.01100346471100892</v>
+        <v>0.01282036142134555</v>
       </c>
       <c r="D8">
-        <v>-0.01348519064465354</v>
+        <v>-0.02770233929536955</v>
       </c>
       <c r="E8">
-        <v>-0.0587723083367454</v>
+        <v>-0.01080347359113166</v>
       </c>
       <c r="F8">
-        <v>0.09640518153831176</v>
+        <v>-0.0211792447510002</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08772099297020909</v>
+        <v>-0.07252453772157574</v>
       </c>
       <c r="C9">
-        <v>0.06446072838359862</v>
+        <v>-0.0145694142579934</v>
       </c>
       <c r="D9">
-        <v>0.01459021646050622</v>
+        <v>-0.07768044784220265</v>
       </c>
       <c r="E9">
-        <v>-0.09907834552319757</v>
+        <v>-0.02072889809297056</v>
       </c>
       <c r="F9">
-        <v>0.09305214966767694</v>
+        <v>0.06122565510772091</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1317622709315556</v>
+        <v>-0.09159636863549256</v>
       </c>
       <c r="C10">
-        <v>-0.1815500025435289</v>
+        <v>-0.01337621125971989</v>
       </c>
       <c r="D10">
-        <v>-0.01643085377714355</v>
+        <v>0.1720263757897979</v>
       </c>
       <c r="E10">
-        <v>0.03026250582113859</v>
+        <v>0.03404400576311541</v>
       </c>
       <c r="F10">
-        <v>-0.05297989937830776</v>
+        <v>-0.0501081975406287</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06712222580397346</v>
+        <v>-0.08873068852794636</v>
       </c>
       <c r="C11">
-        <v>0.05659671096274587</v>
+        <v>-0.01384967015699558</v>
       </c>
       <c r="D11">
-        <v>0.04426115930851707</v>
+        <v>-0.108958879052731</v>
       </c>
       <c r="E11">
-        <v>-0.07578289419191814</v>
+        <v>-0.0406770889970525</v>
       </c>
       <c r="F11">
-        <v>0.06851597407536685</v>
+        <v>0.02750699021806597</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07679442850172569</v>
+        <v>-0.09407708971032047</v>
       </c>
       <c r="C12">
-        <v>0.0691903956528736</v>
+        <v>-0.011455153803136</v>
       </c>
       <c r="D12">
-        <v>0.05846116839020384</v>
+        <v>-0.1157349935099089</v>
       </c>
       <c r="E12">
-        <v>-0.1174786927193714</v>
+        <v>-0.03925343397043921</v>
       </c>
       <c r="F12">
-        <v>0.04777179248649775</v>
+        <v>0.03023066662070645</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04053929708462758</v>
+        <v>-0.04474952690425416</v>
       </c>
       <c r="C13">
-        <v>0.0409450729754008</v>
+        <v>-0.004952203433442301</v>
       </c>
       <c r="D13">
-        <v>-0.02281415757299087</v>
+        <v>-0.0416624858609527</v>
       </c>
       <c r="E13">
-        <v>-0.03871422577358231</v>
+        <v>0.01361479951184106</v>
       </c>
       <c r="F13">
-        <v>0.04445783909076279</v>
+        <v>0.02178289593925966</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.04507189667927027</v>
+        <v>-0.02244270023227055</v>
       </c>
       <c r="C14">
-        <v>0.0277794791939507</v>
+        <v>-0.01517241425598936</v>
       </c>
       <c r="D14">
-        <v>0.002348213897161719</v>
+        <v>-0.02907176460345935</v>
       </c>
       <c r="E14">
-        <v>-0.03506107221989069</v>
+        <v>-0.01508127299740557</v>
       </c>
       <c r="F14">
-        <v>0.0454544990052522</v>
+        <v>0.02727080217552546</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02621422160928602</v>
+        <v>-0.03263713206345895</v>
       </c>
       <c r="C15">
-        <v>0.01817587504755487</v>
+        <v>-0.006271609584074549</v>
       </c>
       <c r="D15">
-        <v>-0.07331223484583958</v>
+        <v>-0.04025054927501553</v>
       </c>
       <c r="E15">
-        <v>0.004505949892078687</v>
+        <v>-0.007283305735342548</v>
       </c>
       <c r="F15">
-        <v>0.03535846270188191</v>
+        <v>0.03533857916120971</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07989355879842908</v>
+        <v>-0.07585954682614346</v>
       </c>
       <c r="C16">
-        <v>0.07406749305983758</v>
+        <v>-0.00542970206977633</v>
       </c>
       <c r="D16">
-        <v>0.04273832730101785</v>
+        <v>-0.1132664139270482</v>
       </c>
       <c r="E16">
-        <v>-0.09411926765355995</v>
+        <v>-0.0566066291498149</v>
       </c>
       <c r="F16">
-        <v>0.04414574838054866</v>
+        <v>0.03563918600529706</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01717799828420723</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003971943916994044</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02351782555430194</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.0106936711422248</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02817292432271393</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04495875592611979</v>
+        <v>-0.06132093840201273</v>
       </c>
       <c r="C20">
-        <v>0.02430232562312471</v>
+        <v>-0.003072532292019238</v>
       </c>
       <c r="D20">
-        <v>-0.033378802613829</v>
+        <v>-0.06713628164869381</v>
       </c>
       <c r="E20">
-        <v>-0.07357636144022629</v>
+        <v>-0.04957934899006525</v>
       </c>
       <c r="F20">
-        <v>0.03023468938722915</v>
+        <v>0.03195899649770118</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03549154686974942</v>
+        <v>-0.03811588287831696</v>
       </c>
       <c r="C21">
-        <v>0.0231593568702363</v>
+        <v>-0.008223329674249619</v>
       </c>
       <c r="D21">
-        <v>0.02163400928593538</v>
+        <v>-0.0331830646592366</v>
       </c>
       <c r="E21">
-        <v>-0.05345257317330359</v>
+        <v>0.01258324066350828</v>
       </c>
       <c r="F21">
-        <v>0.0471071845316183</v>
+        <v>-0.01701273099584542</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05668046859782799</v>
+        <v>-0.0427446749067505</v>
       </c>
       <c r="C22">
-        <v>0.03263554164336346</v>
+        <v>-0.001028919625269167</v>
       </c>
       <c r="D22">
-        <v>-0.647060159627297</v>
+        <v>0.001691953746468229</v>
       </c>
       <c r="E22">
-        <v>-0.05619696342360604</v>
+        <v>-0.03405718929845394</v>
       </c>
       <c r="F22">
-        <v>-0.1021926486415521</v>
+        <v>-0.02548278370640553</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05724540670373203</v>
+        <v>-0.04278212591846155</v>
       </c>
       <c r="C23">
-        <v>0.03390029060270842</v>
+        <v>-0.001051898360905405</v>
       </c>
       <c r="D23">
-        <v>-0.6491689273143393</v>
+        <v>0.001517751569930447</v>
       </c>
       <c r="E23">
-        <v>-0.05999465506778185</v>
+        <v>-0.03442123242875846</v>
       </c>
       <c r="F23">
-        <v>-0.09943297895881764</v>
+        <v>-0.0249085023208475</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07727828216350605</v>
+        <v>-0.08217066033044672</v>
       </c>
       <c r="C24">
-        <v>0.06908187915566918</v>
+        <v>-0.005575880316694531</v>
       </c>
       <c r="D24">
-        <v>0.03748116570171208</v>
+        <v>-0.1135027544485665</v>
       </c>
       <c r="E24">
-        <v>-0.09200711655846838</v>
+        <v>-0.04455541739461202</v>
       </c>
       <c r="F24">
-        <v>0.05478432863681312</v>
+        <v>0.02819753307313395</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07583576383146695</v>
+        <v>-0.08646036603033755</v>
       </c>
       <c r="C25">
-        <v>0.0504845687878934</v>
+        <v>-0.00778547429826531</v>
       </c>
       <c r="D25">
-        <v>0.05840455958506557</v>
+        <v>-0.0986025154997964</v>
       </c>
       <c r="E25">
-        <v>-0.09726369168481327</v>
+        <v>-0.02590615876289067</v>
       </c>
       <c r="F25">
-        <v>0.05848366348470731</v>
+        <v>0.03744613747046283</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04167221071607981</v>
+        <v>-0.05677051687086403</v>
       </c>
       <c r="C26">
-        <v>0.01540115720953945</v>
+        <v>-0.01544775403271485</v>
       </c>
       <c r="D26">
-        <v>-0.01547753953757105</v>
+        <v>-0.02971506220735784</v>
       </c>
       <c r="E26">
-        <v>-0.09354699163255405</v>
+        <v>-0.02383559684453</v>
       </c>
       <c r="F26">
-        <v>-0.01220390050725508</v>
+        <v>0.002223162132905783</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.155253493671005</v>
+        <v>-0.1379722664939765</v>
       </c>
       <c r="C28">
-        <v>-0.2747345001444267</v>
+        <v>-0.01056434669806989</v>
       </c>
       <c r="D28">
-        <v>0.004117020229536408</v>
+        <v>0.2749974858108898</v>
       </c>
       <c r="E28">
-        <v>-0.01944225234367056</v>
+        <v>0.06575228611175389</v>
       </c>
       <c r="F28">
-        <v>0.01037608057225936</v>
+        <v>0.04623432961321881</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03980672973384358</v>
+        <v>-0.02738166148617322</v>
       </c>
       <c r="C29">
-        <v>0.02375756712148589</v>
+        <v>-0.009320450122833356</v>
       </c>
       <c r="D29">
-        <v>0.005447565868093439</v>
+        <v>-0.02777089458957407</v>
       </c>
       <c r="E29">
-        <v>-0.03773959048261893</v>
+        <v>-0.00794420123830797</v>
       </c>
       <c r="F29">
-        <v>0.04085939801960928</v>
+        <v>-0.006203478665020863</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.08291970530887312</v>
+        <v>-0.06490957107413911</v>
       </c>
       <c r="C30">
-        <v>0.05931881551427447</v>
+        <v>-0.007756402523442581</v>
       </c>
       <c r="D30">
-        <v>0.01769393629954096</v>
+        <v>-0.07494206122321474</v>
       </c>
       <c r="E30">
-        <v>-0.2999238337395145</v>
+        <v>-0.01994709464357928</v>
       </c>
       <c r="F30">
-        <v>0.03848842079478588</v>
+        <v>0.1235678646560102</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02832319340573027</v>
+        <v>-0.04835432085710301</v>
       </c>
       <c r="C31">
-        <v>0.05651584284815742</v>
+        <v>-0.01519637346689817</v>
       </c>
       <c r="D31">
-        <v>-0.005032755245178315</v>
+        <v>-0.02977987116119046</v>
       </c>
       <c r="E31">
-        <v>-0.02630884575191869</v>
+        <v>-0.02632400204687222</v>
       </c>
       <c r="F31">
-        <v>0.03096678174616579</v>
+        <v>-0.00221171828973031</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05454658236746647</v>
+        <v>-0.048583449826064</v>
       </c>
       <c r="C32">
-        <v>0.003547074520414603</v>
+        <v>-0.001187427467858169</v>
       </c>
       <c r="D32">
-        <v>0.04548559615419372</v>
+        <v>-0.02467515430082769</v>
       </c>
       <c r="E32">
-        <v>0.01494738478600282</v>
+        <v>-0.02403130949064415</v>
       </c>
       <c r="F32">
-        <v>0.1063738295882707</v>
+        <v>0.005808483987161579</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09503933939434608</v>
+        <v>-0.09181798972794783</v>
       </c>
       <c r="C33">
-        <v>0.06845922972203308</v>
+        <v>-0.01072259096107757</v>
       </c>
       <c r="D33">
-        <v>0.02324649321443048</v>
+        <v>-0.08814240597875463</v>
       </c>
       <c r="E33">
-        <v>-0.06820183982237855</v>
+        <v>-0.04254150932089099</v>
       </c>
       <c r="F33">
-        <v>0.02691673800983294</v>
+        <v>0.04315291163574349</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06704116334745062</v>
+        <v>-0.06911027950220804</v>
       </c>
       <c r="C34">
-        <v>0.05015577340277266</v>
+        <v>-0.01338672324485472</v>
       </c>
       <c r="D34">
-        <v>0.04934580188153454</v>
+        <v>-0.09264981458897188</v>
       </c>
       <c r="E34">
-        <v>-0.07873826836338989</v>
+        <v>-0.02714906217442738</v>
       </c>
       <c r="F34">
-        <v>0.05165616770491842</v>
+        <v>0.05317879744417812</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01679878018867336</v>
+        <v>-0.02428004507441598</v>
       </c>
       <c r="C35">
-        <v>0.01328327882685874</v>
+        <v>-0.002739898638549752</v>
       </c>
       <c r="D35">
-        <v>-0.004465807148013949</v>
+        <v>-0.01029415847541486</v>
       </c>
       <c r="E35">
-        <v>-0.02199635328202184</v>
+        <v>-0.01175865261811057</v>
       </c>
       <c r="F35">
-        <v>0.01381164270033266</v>
+        <v>0.01336253880118441</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02804520826271964</v>
+        <v>-0.02628721292124581</v>
       </c>
       <c r="C36">
-        <v>0.0200678764410204</v>
+        <v>-0.007096984782952396</v>
       </c>
       <c r="D36">
-        <v>-0.01742351156877835</v>
+        <v>-0.03843307682791792</v>
       </c>
       <c r="E36">
-        <v>-0.08320233761535267</v>
+        <v>-0.01607921141257126</v>
       </c>
       <c r="F36">
-        <v>0.03630163629659145</v>
+        <v>0.01388102818756415</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02441148475696454</v>
+        <v>-0.003003529247656779</v>
       </c>
       <c r="C38">
-        <v>0.05490584808914849</v>
+        <v>-0.0005636354073494771</v>
       </c>
       <c r="D38">
-        <v>-0.02364308003546552</v>
+        <v>-0.003614514617273514</v>
       </c>
       <c r="E38">
-        <v>0.05394885542992654</v>
+        <v>-0.004386243667978041</v>
       </c>
       <c r="F38">
-        <v>-0.1131641200420677</v>
+        <v>-0.003507107745905195</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1000908933066277</v>
+        <v>-0.1120009598135714</v>
       </c>
       <c r="C39">
-        <v>0.0813720623688285</v>
+        <v>-0.01964129129457793</v>
       </c>
       <c r="D39">
-        <v>0.1331328785052394</v>
+        <v>-0.1466389840387615</v>
       </c>
       <c r="E39">
-        <v>-0.1880085391752198</v>
+        <v>-0.04912668720427833</v>
       </c>
       <c r="F39">
-        <v>-0.02180126695116022</v>
+        <v>0.03913994958326787</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02321743436147513</v>
+        <v>-0.03726661214755038</v>
       </c>
       <c r="C40">
-        <v>0.0571730121806274</v>
+        <v>-0.007749058234878411</v>
       </c>
       <c r="D40">
-        <v>-0.02592401578361864</v>
+        <v>-0.02594643349303023</v>
       </c>
       <c r="E40">
-        <v>-0.02008250680602367</v>
+        <v>-0.001807274111420449</v>
       </c>
       <c r="F40">
-        <v>0.1051930004010634</v>
+        <v>-0.01494383581841245</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03029673811416396</v>
+        <v>-0.02644750027643094</v>
       </c>
       <c r="C41">
-        <v>0.0246506409702525</v>
+        <v>-0.006766015298359342</v>
       </c>
       <c r="D41">
-        <v>0.02233805206184952</v>
+        <v>-0.01149226788253755</v>
       </c>
       <c r="E41">
-        <v>-0.01482088335348252</v>
+        <v>-0.01085272944854724</v>
       </c>
       <c r="F41">
-        <v>-0.01512966588031467</v>
+        <v>-0.01198171000598655</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04594389779593136</v>
+        <v>-0.04332963953049151</v>
       </c>
       <c r="C43">
-        <v>0.048313064236726</v>
+        <v>-0.007184957248473549</v>
       </c>
       <c r="D43">
-        <v>-0.01218534962791386</v>
+        <v>-0.0218168384174751</v>
       </c>
       <c r="E43">
-        <v>-0.03923107360788958</v>
+        <v>-0.02588575664041624</v>
       </c>
       <c r="F43">
-        <v>-0.03653001448920772</v>
+        <v>-0.01127588671136733</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09709777402257172</v>
+        <v>-0.07390837318992456</v>
       </c>
       <c r="C44">
-        <v>0.08546644061691762</v>
+        <v>-0.02389255583714566</v>
       </c>
       <c r="D44">
-        <v>-0.057280028018525</v>
+        <v>-0.09863586264839469</v>
       </c>
       <c r="E44">
-        <v>-0.08899604994678977</v>
+        <v>-0.06399986619096514</v>
       </c>
       <c r="F44">
-        <v>0.1134830266067968</v>
+        <v>0.1831488056934487</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.03926441648539934</v>
+        <v>-0.02403172442633288</v>
       </c>
       <c r="C46">
-        <v>0.03497250135335163</v>
+        <v>-0.004324503698604386</v>
       </c>
       <c r="D46">
-        <v>-0.0493944947943602</v>
+        <v>-0.01215374290270322</v>
       </c>
       <c r="E46">
-        <v>-0.009004518531349199</v>
+        <v>-0.02269608732632283</v>
       </c>
       <c r="F46">
-        <v>0.05048167232526463</v>
+        <v>-0.003356620340451353</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05439060979750666</v>
+        <v>-0.05287933392802939</v>
       </c>
       <c r="C47">
-        <v>0.04399476151641654</v>
+        <v>-0.003398555650282968</v>
       </c>
       <c r="D47">
-        <v>-0.0001190589068692484</v>
+        <v>-0.01292393730967866</v>
       </c>
       <c r="E47">
-        <v>-0.02873972576610202</v>
+        <v>-0.02252502384837328</v>
       </c>
       <c r="F47">
-        <v>-0.003868451207955277</v>
+        <v>-0.04791200899051528</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0464376365974341</v>
+        <v>-0.04829126278749452</v>
       </c>
       <c r="C48">
-        <v>0.01620057146711091</v>
+        <v>-0.003393507227661103</v>
       </c>
       <c r="D48">
-        <v>0.009171622821968144</v>
+        <v>-0.04312621270071725</v>
       </c>
       <c r="E48">
-        <v>-0.06836024435672129</v>
+        <v>0.008871026719760868</v>
       </c>
       <c r="F48">
-        <v>0.07444072656426814</v>
+        <v>0.01958588994575517</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2356265113764459</v>
+        <v>-0.2068055979349476</v>
       </c>
       <c r="C49">
-        <v>0.06144426957664843</v>
+        <v>-0.01688980267808972</v>
       </c>
       <c r="D49">
-        <v>0.03873649281480234</v>
+        <v>0.004063828473523125</v>
       </c>
       <c r="E49">
-        <v>0.2515674749568582</v>
+        <v>-0.04193732469570236</v>
       </c>
       <c r="F49">
-        <v>-0.1580776334405792</v>
+        <v>0.03309746361947564</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03584425717117586</v>
+        <v>-0.04869555846896788</v>
       </c>
       <c r="C50">
-        <v>0.04609888591350554</v>
+        <v>-0.01141202667709975</v>
       </c>
       <c r="D50">
-        <v>0.008406237137651986</v>
+        <v>-0.02800194187334655</v>
       </c>
       <c r="E50">
-        <v>-0.06553595180633347</v>
+        <v>-0.02837360035123332</v>
       </c>
       <c r="F50">
-        <v>0.01168167303507676</v>
+        <v>0.00658994210782157</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.03133300201473977</v>
+        <v>-0.003569467411638477</v>
       </c>
       <c r="C51">
-        <v>-0.0005085970052826522</v>
+        <v>-0.0008405144455538213</v>
       </c>
       <c r="D51">
-        <v>0.0003231769677386295</v>
+        <v>0.00184591674184424</v>
       </c>
       <c r="E51">
-        <v>0.05201262704092588</v>
+        <v>-0.00143216900450269</v>
       </c>
       <c r="F51">
-        <v>-0.01189922025205205</v>
+        <v>0.004401303133671274</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.02305585759480671</v>
+        <v>-0.1409797481091979</v>
       </c>
       <c r="C52">
-        <v>0.01042939170481033</v>
+        <v>-0.0125471645412011</v>
       </c>
       <c r="D52">
-        <v>0.02471522523155971</v>
+        <v>-0.05017566507214067</v>
       </c>
       <c r="E52">
-        <v>-0.005926784062426521</v>
+        <v>-0.01511713678600111</v>
       </c>
       <c r="F52">
-        <v>-0.01868510278446288</v>
+        <v>0.02986712184616288</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.145924018206416</v>
+        <v>-0.1726996428452784</v>
       </c>
       <c r="C53">
-        <v>0.05772650317912661</v>
+        <v>-0.01526901174571931</v>
       </c>
       <c r="D53">
-        <v>-0.01286092714858203</v>
+        <v>-0.0180569663650737</v>
       </c>
       <c r="E53">
-        <v>0.03822402607544133</v>
+        <v>-0.03845630756114041</v>
       </c>
       <c r="F53">
-        <v>-0.1057211992620539</v>
+        <v>0.05654264447675749</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.06367215396769124</v>
+        <v>-0.0223534175043717</v>
       </c>
       <c r="C54">
-        <v>0.03625560854312932</v>
+        <v>-0.01320391385510371</v>
       </c>
       <c r="D54">
-        <v>-0.009077567140944529</v>
+        <v>-0.02911383753935171</v>
       </c>
       <c r="E54">
-        <v>-0.09775377389769692</v>
+        <v>-0.01581839002554223</v>
       </c>
       <c r="F54">
-        <v>0.1011601437562838</v>
+        <v>0.0002033683135135377</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08270186660916978</v>
+        <v>-0.1143943917481174</v>
       </c>
       <c r="C55">
-        <v>0.05058720040139168</v>
+        <v>-0.01430462500404578</v>
       </c>
       <c r="D55">
-        <v>0.03223199159886658</v>
+        <v>-0.01638669761649588</v>
       </c>
       <c r="E55">
-        <v>0.012122755060757</v>
+        <v>-0.02996168228599508</v>
       </c>
       <c r="F55">
-        <v>-0.02996955268071336</v>
+        <v>0.04635091395378971</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1392423039102776</v>
+        <v>-0.1773947417089534</v>
       </c>
       <c r="C56">
-        <v>0.09148738385407765</v>
+        <v>-0.01282391235240223</v>
       </c>
       <c r="D56">
-        <v>0.02087909692121676</v>
+        <v>-0.01516515375963459</v>
       </c>
       <c r="E56">
-        <v>0.01239223420834106</v>
+        <v>-0.04234989760543591</v>
       </c>
       <c r="F56">
-        <v>-0.06151399453179118</v>
+        <v>0.02687828051133515</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03354051630510807</v>
+        <v>-0.04725636338326817</v>
       </c>
       <c r="C58">
-        <v>0.03089293761847141</v>
+        <v>-0.00361200374809551</v>
       </c>
       <c r="D58">
-        <v>-0.03101523114833625</v>
+        <v>-0.06199057536289922</v>
       </c>
       <c r="E58">
-        <v>-0.04135576429615533</v>
+        <v>-0.01401338655886343</v>
       </c>
       <c r="F58">
-        <v>0.001995915866933205</v>
+        <v>-0.04376672643081921</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2131405571405765</v>
+        <v>-0.1700537069645481</v>
       </c>
       <c r="C59">
-        <v>-0.243147080295275</v>
+        <v>-0.01241327675233458</v>
       </c>
       <c r="D59">
-        <v>0.04968183802103866</v>
+        <v>0.2312926152270977</v>
       </c>
       <c r="E59">
-        <v>0.04118585882740299</v>
+        <v>0.04693328349209013</v>
       </c>
       <c r="F59">
-        <v>0.02959962771838769</v>
+        <v>-0.03125078379491483</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2360098390788789</v>
+        <v>-0.2397193749743509</v>
       </c>
       <c r="C60">
-        <v>0.1400690741784872</v>
+        <v>0.004429941704884188</v>
       </c>
       <c r="D60">
-        <v>0.08148322021964251</v>
+        <v>-0.05455319659386878</v>
       </c>
       <c r="E60">
-        <v>0.09881540513232814</v>
+        <v>-0.01137856927388108</v>
       </c>
       <c r="F60">
-        <v>-0.03954448845264864</v>
+        <v>-0.04596855666051195</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09357013629174832</v>
+        <v>-0.08574987603240922</v>
       </c>
       <c r="C61">
-        <v>0.06269619863746055</v>
+        <v>-0.01503663466382328</v>
       </c>
       <c r="D61">
-        <v>0.07575054735696245</v>
+        <v>-0.1060978825301827</v>
       </c>
       <c r="E61">
-        <v>-0.1424684516039558</v>
+        <v>-0.03330285376500398</v>
       </c>
       <c r="F61">
-        <v>0.03489902606203045</v>
+        <v>0.02603703750794795</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1278709386966724</v>
+        <v>-0.1685276469708846</v>
       </c>
       <c r="C62">
-        <v>0.07315669453959554</v>
+        <v>-0.01687771614672551</v>
       </c>
       <c r="D62">
-        <v>0.003726862185662815</v>
+        <v>-0.01393462909916697</v>
       </c>
       <c r="E62">
-        <v>0.0361031227788676</v>
+        <v>-0.0381126238814054</v>
       </c>
       <c r="F62">
-        <v>-0.07213647419468641</v>
+        <v>0.01127440794148482</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0446460493421755</v>
+        <v>-0.04260947622676844</v>
       </c>
       <c r="C63">
-        <v>0.01792303277427413</v>
+        <v>-0.004438904135525286</v>
       </c>
       <c r="D63">
-        <v>0.009214193217899505</v>
+        <v>-0.0461321851118701</v>
       </c>
       <c r="E63">
-        <v>-0.07016293143568338</v>
+        <v>-0.01418663082468697</v>
       </c>
       <c r="F63">
-        <v>0.01299751534398852</v>
+        <v>0.01135671093479043</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09722615803232453</v>
+        <v>-0.1121444453246614</v>
       </c>
       <c r="C64">
-        <v>0.0587651309360357</v>
+        <v>-0.01208164930996971</v>
       </c>
       <c r="D64">
-        <v>0.003759045263719485</v>
+        <v>-0.03812361785592339</v>
       </c>
       <c r="E64">
-        <v>-0.08139061557671674</v>
+        <v>-0.01888551816630658</v>
       </c>
       <c r="F64">
-        <v>0.01543800582780257</v>
+        <v>0.01728573240959005</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1218231625850934</v>
+        <v>-0.142853243469196</v>
       </c>
       <c r="C65">
-        <v>0.04280906912505355</v>
+        <v>-0.03064519046697962</v>
       </c>
       <c r="D65">
-        <v>0.01431654610886018</v>
+        <v>0.04653452123042864</v>
       </c>
       <c r="E65">
-        <v>-0.0930028588055342</v>
+        <v>-0.00320778051430232</v>
       </c>
       <c r="F65">
-        <v>0.002530807820225905</v>
+        <v>0.041830797269505</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1130200507963684</v>
+        <v>-0.1340214426642586</v>
       </c>
       <c r="C66">
-        <v>0.1178158494286712</v>
+        <v>-0.01716479094487356</v>
       </c>
       <c r="D66">
-        <v>0.1275846930221909</v>
+        <v>-0.1332252345966791</v>
       </c>
       <c r="E66">
-        <v>-0.1672873685063566</v>
+        <v>-0.05858762547172115</v>
       </c>
       <c r="F66">
-        <v>-0.02835287000886065</v>
+        <v>0.04444250805506003</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0796059640446305</v>
+        <v>-0.06559325805816976</v>
       </c>
       <c r="C67">
-        <v>0.06536931625269118</v>
+        <v>-0.004449075023183337</v>
       </c>
       <c r="D67">
-        <v>-0.02596557250495328</v>
+        <v>-0.05578419932876457</v>
       </c>
       <c r="E67">
-        <v>0.03577333230806255</v>
+        <v>-0.01928082876485914</v>
       </c>
       <c r="F67">
-        <v>-0.1319312490554715</v>
+        <v>-0.0433742828138963</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1293868152102363</v>
+        <v>-0.1111005495696203</v>
       </c>
       <c r="C68">
-        <v>-0.2720962520063568</v>
+        <v>-0.02142705139432449</v>
       </c>
       <c r="D68">
-        <v>0.01088233581620413</v>
+        <v>0.272619438158019</v>
       </c>
       <c r="E68">
-        <v>-0.04583384639533893</v>
+        <v>0.08471650683179649</v>
       </c>
       <c r="F68">
-        <v>0.006513124712807138</v>
+        <v>0.0506135590815327</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04358938562926305</v>
+        <v>-0.04062121975726028</v>
       </c>
       <c r="C69">
-        <v>0.01808496355981435</v>
+        <v>-0.001169024499284244</v>
       </c>
       <c r="D69">
-        <v>-0.006134414668042418</v>
+        <v>-0.009004603241713991</v>
       </c>
       <c r="E69">
-        <v>-0.02568110312977607</v>
+        <v>-0.02605809646434149</v>
       </c>
       <c r="F69">
-        <v>-0.0299012884342196</v>
+        <v>-0.01614698520307593</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0501850843211523</v>
+        <v>-0.0647919899471944</v>
       </c>
       <c r="C70">
-        <v>0.05412108283155003</v>
+        <v>0.02678082673301818</v>
       </c>
       <c r="D70">
-        <v>0.02790628493404468</v>
+        <v>-0.01143084770884454</v>
       </c>
       <c r="E70">
-        <v>-0.06064777719891245</v>
+        <v>0.04363017003113795</v>
       </c>
       <c r="F70">
-        <v>0.02848113037213144</v>
+        <v>-0.3367646187303369</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1491808172217208</v>
+        <v>-0.130507569809874</v>
       </c>
       <c r="C71">
-        <v>-0.277619593343879</v>
+        <v>-0.02537636674697101</v>
       </c>
       <c r="D71">
-        <v>0.009336600742866385</v>
+        <v>0.2882531192974787</v>
       </c>
       <c r="E71">
-        <v>-0.06112655576991801</v>
+        <v>0.09237562819554941</v>
       </c>
       <c r="F71">
-        <v>0.004599547904630916</v>
+        <v>0.05289435573347894</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1239810833471375</v>
+        <v>-0.1377228594721423</v>
       </c>
       <c r="C72">
-        <v>0.0214510583446322</v>
+        <v>-0.02356898104406436</v>
       </c>
       <c r="D72">
-        <v>0.005491046680089073</v>
+        <v>-0.00705471643923578</v>
       </c>
       <c r="E72">
-        <v>-0.05585559852348165</v>
+        <v>-0.04144918496863061</v>
       </c>
       <c r="F72">
-        <v>-0.02980957581164058</v>
+        <v>0.02500982132131986</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2243242605516761</v>
+        <v>-0.2090045612210754</v>
       </c>
       <c r="C73">
-        <v>0.1205904698048188</v>
+        <v>-0.0113474424942205</v>
       </c>
       <c r="D73">
-        <v>0.1437546926951066</v>
+        <v>-0.02355473770863797</v>
       </c>
       <c r="E73">
-        <v>0.3970395652263288</v>
+        <v>-0.06984386845396981</v>
       </c>
       <c r="F73">
-        <v>-0.3236889674033488</v>
+        <v>0.02218002328678914</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08834046747136104</v>
+        <v>-0.09378946575650036</v>
       </c>
       <c r="C74">
-        <v>0.08763319860874699</v>
+        <v>-0.01176511571834908</v>
       </c>
       <c r="D74">
-        <v>0.005463025661264304</v>
+        <v>-0.02667877665760451</v>
       </c>
       <c r="E74">
-        <v>0.004618066863105634</v>
+        <v>-0.05127412025411788</v>
       </c>
       <c r="F74">
-        <v>-0.1075525773527201</v>
+        <v>0.04035399830915705</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.08757995611560125</v>
+        <v>-0.1301792939530762</v>
       </c>
       <c r="C75">
-        <v>0.06385372667486049</v>
+        <v>-0.02603393699499331</v>
       </c>
       <c r="D75">
-        <v>0.00296907108119702</v>
+        <v>-0.03689611954980875</v>
       </c>
       <c r="E75">
-        <v>0.001135848224661261</v>
+        <v>-0.05916545238597498</v>
       </c>
       <c r="F75">
-        <v>-0.01449670409969075</v>
+        <v>0.006459852384324556</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.07302380062082001</v>
+        <v>-0.008640465872825865</v>
       </c>
       <c r="C76">
-        <v>0.0724818833307341</v>
+        <v>-0.001912169068478938</v>
       </c>
       <c r="D76">
-        <v>-0.004981146056102176</v>
+        <v>-0.003634095214368806</v>
       </c>
       <c r="E76">
-        <v>0.04472027911126282</v>
+        <v>-0.008878996880183135</v>
       </c>
       <c r="F76">
-        <v>-0.03242081021758619</v>
+        <v>0.002799120404156555</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06757170509163109</v>
+        <v>-0.08092795055970645</v>
       </c>
       <c r="C77">
-        <v>0.01900557711723918</v>
+        <v>-0.01195673098434532</v>
       </c>
       <c r="D77">
-        <v>0.03591587807946742</v>
+        <v>-0.1002435862115596</v>
       </c>
       <c r="E77">
-        <v>-0.1608914499722558</v>
+        <v>-0.03113237988904477</v>
       </c>
       <c r="F77">
-        <v>0.1550701405959898</v>
+        <v>0.03737024498731604</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1780731449676973</v>
+        <v>-0.1102371849418188</v>
       </c>
       <c r="C78">
-        <v>0.1597211797348575</v>
+        <v>-0.0444169838525932</v>
       </c>
       <c r="D78">
-        <v>-0.1650329825995433</v>
+        <v>-0.1174541059684727</v>
       </c>
       <c r="E78">
-        <v>0.252496428020989</v>
+        <v>-0.09052877757191297</v>
       </c>
       <c r="F78">
-        <v>0.5779678384750927</v>
+        <v>0.07463221769918554</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1300343039031875</v>
+        <v>-0.1625062363458944</v>
       </c>
       <c r="C79">
-        <v>0.0786003319608158</v>
+        <v>-0.01997403237774711</v>
       </c>
       <c r="D79">
-        <v>-0.006372490680352794</v>
+        <v>-0.02170873505586047</v>
       </c>
       <c r="E79">
-        <v>0.00197647353128946</v>
+        <v>-0.0488561308027787</v>
       </c>
       <c r="F79">
-        <v>-0.04149168290613146</v>
+        <v>0.004560574571823537</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.06696291706397486</v>
+        <v>-0.08039019939322882</v>
       </c>
       <c r="C80">
-        <v>0.04349730308805959</v>
+        <v>0.0009974362751110986</v>
       </c>
       <c r="D80">
-        <v>0.07871219298265765</v>
+        <v>-0.05773388709791456</v>
       </c>
       <c r="E80">
-        <v>-0.05837889318379121</v>
+        <v>-0.02839498430914447</v>
       </c>
       <c r="F80">
-        <v>-0.03651083340330655</v>
+        <v>-0.009811453154253833</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1236523825759451</v>
+        <v>-0.1221397630526787</v>
       </c>
       <c r="C81">
-        <v>0.05238555804824847</v>
+        <v>-0.02962786482228355</v>
       </c>
       <c r="D81">
-        <v>-0.01278928467927603</v>
+        <v>-0.02559202919184239</v>
       </c>
       <c r="E81">
-        <v>-0.05943381273555745</v>
+        <v>-0.05842295238007564</v>
       </c>
       <c r="F81">
-        <v>-0.021478361854315</v>
+        <v>-0.004655724941310713</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1206929865882594</v>
+        <v>-0.1620435972134716</v>
       </c>
       <c r="C82">
-        <v>0.05918683216163251</v>
+        <v>-0.02022149398336251</v>
       </c>
       <c r="D82">
-        <v>0.009167766106267012</v>
+        <v>-0.02088735027106828</v>
       </c>
       <c r="E82">
-        <v>-0.02404885848346849</v>
+        <v>-0.03483995001516877</v>
       </c>
       <c r="F82">
-        <v>-0.09904835486608929</v>
+        <v>0.05071459519099172</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08486595789253304</v>
+        <v>-0.06674886011714407</v>
       </c>
       <c r="C83">
-        <v>0.08074589698063814</v>
+        <v>-0.004210576315522541</v>
       </c>
       <c r="D83">
-        <v>0.01423238837036059</v>
+        <v>-0.04713011224186681</v>
       </c>
       <c r="E83">
-        <v>-0.06032591871846771</v>
+        <v>-0.003831253145947332</v>
       </c>
       <c r="F83">
-        <v>-0.08240362377907948</v>
+        <v>-0.03054667596224587</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.04897627201878473</v>
+        <v>-0.06092583644747276</v>
       </c>
       <c r="C84">
-        <v>-0.05751291159850724</v>
+        <v>-0.0120300382410736</v>
       </c>
       <c r="D84">
-        <v>0.0423813398564673</v>
+        <v>-0.05964059047430915</v>
       </c>
       <c r="E84">
-        <v>0.05596506989061801</v>
+        <v>0.003940633089785721</v>
       </c>
       <c r="F84">
-        <v>0.1971121769056965</v>
+        <v>0.01536563714087954</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1185791928207282</v>
+        <v>-0.1376711560537784</v>
       </c>
       <c r="C85">
-        <v>0.05259888506645011</v>
+        <v>-0.02534100108034007</v>
       </c>
       <c r="D85">
-        <v>0.005115541851483768</v>
+        <v>-0.01826218497806184</v>
       </c>
       <c r="E85">
-        <v>0.001602950222160926</v>
+        <v>-0.04041937880513922</v>
       </c>
       <c r="F85">
-        <v>-0.05619677523672913</v>
+        <v>0.03904427884429758</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.0922057830516764</v>
+        <v>-0.1001570524541456</v>
       </c>
       <c r="C86">
-        <v>0.01167967096203158</v>
+        <v>0.00711034610465314</v>
       </c>
       <c r="D86">
-        <v>-0.01917157960131783</v>
+        <v>-0.01405921263269132</v>
       </c>
       <c r="E86">
-        <v>0.3528549290844924</v>
+        <v>-0.1319443557235581</v>
       </c>
       <c r="F86">
-        <v>0.3967112576741278</v>
+        <v>-0.8321592807891904</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1255156195781283</v>
+        <v>-0.1012899722066466</v>
       </c>
       <c r="C87">
-        <v>0.06772334961368398</v>
+        <v>-0.02630557634731976</v>
       </c>
       <c r="D87">
-        <v>-0.01075420219695905</v>
+        <v>-0.07068162855821465</v>
       </c>
       <c r="E87">
-        <v>-0.0658693921506122</v>
+        <v>0.05402600787095461</v>
       </c>
       <c r="F87">
-        <v>0.04082805522840054</v>
+        <v>0.09375624344705258</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05829656258996758</v>
+        <v>-0.06186521067892926</v>
       </c>
       <c r="C88">
-        <v>0.06229950255596744</v>
+        <v>-0.003392972949309707</v>
       </c>
       <c r="D88">
-        <v>0.03405783294467161</v>
+        <v>-0.0559630589952543</v>
       </c>
       <c r="E88">
-        <v>-0.02478633690022255</v>
+        <v>-0.02596791637333231</v>
       </c>
       <c r="F88">
-        <v>-0.01724199114990248</v>
+        <v>0.006470940955237586</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2304552791679626</v>
+        <v>-0.1323625516129064</v>
       </c>
       <c r="C89">
-        <v>-0.3686394035975204</v>
+        <v>-0.004296086645083397</v>
       </c>
       <c r="D89">
-        <v>-0.05622857469270468</v>
+        <v>0.2735458974594133</v>
       </c>
       <c r="E89">
-        <v>0.0302940493755509</v>
+        <v>0.09065391113036586</v>
       </c>
       <c r="F89">
-        <v>0.01882173460350843</v>
+        <v>0.03410562581936882</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.158560203955428</v>
+        <v>-0.1423727177328283</v>
       </c>
       <c r="C90">
-        <v>-0.257104016820783</v>
+        <v>-0.02077919372384672</v>
       </c>
       <c r="D90">
-        <v>0.008814120328049325</v>
+        <v>0.2735631466920434</v>
       </c>
       <c r="E90">
-        <v>-0.02004608134773505</v>
+        <v>0.102886572462098</v>
       </c>
       <c r="F90">
-        <v>-0.01382643688544605</v>
+        <v>0.03871368387431819</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07547538227854096</v>
+        <v>-0.1167289766956487</v>
       </c>
       <c r="C91">
-        <v>0.0603844817421688</v>
+        <v>-0.01594163497009448</v>
       </c>
       <c r="D91">
-        <v>-0.005715043655235581</v>
+        <v>0.0006136040812035006</v>
       </c>
       <c r="E91">
-        <v>0.01866546883902134</v>
+        <v>-0.05899454194681281</v>
       </c>
       <c r="F91">
-        <v>-0.005847690336966005</v>
+        <v>-0.03220472858258825</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1669300086522754</v>
+        <v>-0.1448675778508539</v>
       </c>
       <c r="C92">
-        <v>-0.2956099841581499</v>
+        <v>-0.01221702214923735</v>
       </c>
       <c r="D92">
-        <v>-0.03273401748103903</v>
+        <v>0.3081115551908347</v>
       </c>
       <c r="E92">
-        <v>-0.04327140743733104</v>
+        <v>0.0991188176241591</v>
       </c>
       <c r="F92">
-        <v>0.04884917360968129</v>
+        <v>0.03020546713235818</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1725401157589238</v>
+        <v>-0.146276426817822</v>
       </c>
       <c r="C93">
-        <v>-0.3051199721427622</v>
+        <v>-0.01739546530718544</v>
       </c>
       <c r="D93">
-        <v>0.03423014633106679</v>
+        <v>0.2787969762586101</v>
       </c>
       <c r="E93">
-        <v>-0.01784923802985324</v>
+        <v>0.07004774200635684</v>
       </c>
       <c r="F93">
-        <v>0.008309657765814066</v>
+        <v>0.03051221798663452</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1148041154420464</v>
+        <v>-0.1335795249974414</v>
       </c>
       <c r="C94">
-        <v>0.08554063253021031</v>
+        <v>-0.02343385474145088</v>
       </c>
       <c r="D94">
-        <v>-0.01049386992747834</v>
+        <v>-0.04991309595659413</v>
       </c>
       <c r="E94">
-        <v>0.01616909213076141</v>
+        <v>-0.0614656519174073</v>
       </c>
       <c r="F94">
-        <v>-0.049202227222944</v>
+        <v>0.02479220674367352</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.142920834768468</v>
+        <v>-0.1274448094981751</v>
       </c>
       <c r="C95">
-        <v>0.06864266108665429</v>
+        <v>-0.006298113861585002</v>
       </c>
       <c r="D95">
-        <v>-0.01411444958599648</v>
+        <v>-0.08927945564545549</v>
       </c>
       <c r="E95">
-        <v>-0.02489170726869076</v>
+        <v>-0.04057135169262772</v>
       </c>
       <c r="F95">
-        <v>0.1226330433071679</v>
+        <v>-0.009092856124197484</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09451993036240405</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.9894246638870421</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.01382095357406466</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.06032487903538387</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.05043626435915064</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1196731576732845</v>
+        <v>-0.1876084347799761</v>
       </c>
       <c r="C97">
-        <v>-0.01590662929869236</v>
+        <v>0.01268558548120567</v>
       </c>
       <c r="D97">
-        <v>-0.02499648797178442</v>
+        <v>0.01269637299159323</v>
       </c>
       <c r="E97">
-        <v>-0.31717295654313</v>
+        <v>-0.01352589024598958</v>
       </c>
       <c r="F97">
-        <v>-0.165504455384033</v>
+        <v>-0.1638490498521901</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2543323326191514</v>
+        <v>-0.2070505555569444</v>
       </c>
       <c r="C98">
-        <v>0.116572749679364</v>
+        <v>-0.007035095922016409</v>
       </c>
       <c r="D98">
-        <v>-0.06328878072212324</v>
+        <v>-0.01437781243885226</v>
       </c>
       <c r="E98">
-        <v>0.21647903383214</v>
+        <v>0.08803392653591544</v>
       </c>
       <c r="F98">
-        <v>-0.1482116624902654</v>
+        <v>-0.141468711167659</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.07127771998458733</v>
+        <v>-0.05783366181091316</v>
       </c>
       <c r="C99">
-        <v>0.05495757927113565</v>
+        <v>0.003015050118064777</v>
       </c>
       <c r="D99">
-        <v>-0.01388197834908153</v>
+        <v>-0.0344107634784822</v>
       </c>
       <c r="E99">
-        <v>0.04141364958830519</v>
+        <v>-0.02654888155062521</v>
       </c>
       <c r="F99">
-        <v>-0.01917495913111456</v>
+        <v>0.004886972627467902</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1222770798069348</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04789304507548636</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.3220208275531125</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.9068516471628044</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.06083626318153336</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.04028668118119699</v>
+        <v>-0.0272853767004125</v>
       </c>
       <c r="C101">
-        <v>0.02365330662008397</v>
+        <v>-0.009241047640508759</v>
       </c>
       <c r="D101">
-        <v>0.005671501034917315</v>
+        <v>-0.02744238551989474</v>
       </c>
       <c r="E101">
-        <v>-0.03502158153184084</v>
+        <v>-0.008145228950030996</v>
       </c>
       <c r="F101">
-        <v>0.03994589216935589</v>
+        <v>-0.008280302115644558</v>
       </c>
     </row>
     <row r="102" spans="1:6">
